--- a/dumps/Stocks/Vikas Lifecare Ltd.xlsx
+++ b/dumps/Stocks/Vikas Lifecare Ltd.xlsx
@@ -7,11 +7,11 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Vikas Lifecare'!$A$5:$V$7</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_6D964F27_25C0_48D1_99A3_9E2DA81BC0D7_.wvu.FilterData">'Vikas Lifecare'!$A$5:$AG$81</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_6B40143E_7C7F_4908_9D4F_6B47CFB6C697_.wvu.FilterData">'Vikas Lifecare'!$A$5:$AG$81</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{6D964F27-25C0-48D1-99A3-9E2DA81BC0D7}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{6B40143E-7C7F-4908-9D4F-6B47CFB6C697}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -680,8 +680,8 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""NSE:VIKASLIFE"", ""price"")"),1.63)</f>
-        <v>1.63</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""NSE:VIKASLIFE"", ""price"")"),1.66)</f>
+        <v>1.66</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -747,7 +747,7 @@
       </c>
       <c r="H2" s="11">
         <f>IFERROR(AVERAGE(T:T), 0)</f>
-        <v>2.106844092</v>
+        <v>2.093345445</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -927,7 +927,7 @@
       </c>
       <c r="F6" s="40">
         <f t="shared" ref="F6:F7" si="1">$B$1</f>
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="G6" s="41">
         <v>4900.0</v>
@@ -992,7 +992,7 @@
       </c>
       <c r="F7" s="40">
         <f t="shared" si="1"/>
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="G7" s="40">
         <v>3262.1</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="T7" s="49">
         <f>R7/(NOW()-P7)</f>
-        <v>2.106844092</v>
+        <v>2.093345445</v>
       </c>
       <c r="U7" s="46" t="str">
         <f t="shared" si="6"/>
@@ -15993,7 +15993,7 @@
   </sheetData>
   <autoFilter ref="$A$5:$V$7"/>
   <customSheetViews>
-    <customSheetView guid="{6D964F27-25C0-48D1-99A3-9E2DA81BC0D7}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{6B40143E-7C7F-4908-9D4F-6B47CFB6C697}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$5:$AG$81"/>
     </customSheetView>
   </customSheetViews>
